--- a/data/validate_result.xlsx
+++ b/data/validate_result.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,27 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/validate_result.xlsx
+++ b/data/validate_result.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>feature_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>score_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>score_validation</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_train_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>update_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1069042901509248</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1111811893331255</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.008377599716186523</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"copy_X": true, "fit_intercept": true, "n_jobs": null, "normalize": true}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20190811_213042</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LassoRegression</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4960457164766995</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4972813591735591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.004787492752075195</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"alpha": 0.5, "copy_X": true, "fit_intercept": true, "max_iter": 1000, "normalize": false, "positive": false, "precompute": false, "random_state": null, "selection": "cyclic", "tol": 0.0001, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20190811_213043</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/validate_result.xlsx
+++ b/data/validate_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,10 +404,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -415,13 +413,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1069042901509248</v>
+        <v>0.1359542541541348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1111811893331255</v>
+        <v>0.1395609787133217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008377599716186523</v>
+        <v>0.003123998641967773</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -430,15 +428,13 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20190811_213042</t>
+          <t>20190813_172946</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -446,22 +442,370 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4960457164766995</v>
+        <v>0.1635946370766028</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4972813591735591</v>
+        <v>0.1642356906150934</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004787492752075195</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{"alpha": 0.5, "copy_X": true, "fit_intercept": true, "max_iter": 1000, "normalize": false, "positive": false, "precompute": false, "random_state": null, "selection": "cyclic", "tol": 0.0001, "warm_start": false}</t>
+          <t>{"alpha": 0.1, "copy_X": true, "fit_intercept": true, "max_iter": 1000, "normalize": false, "positive": false, "precompute": false, "random_state": null, "selection": "cyclic", "tol": 0.0001, "warm_start": false}</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20190811_213043</t>
+          <t>20190813_172948</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RidgeRegression</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1364181321795397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1398115097997369</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.003124666213989258</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"alpha": 28.3, "copy_X": true, "fit_intercept": true, "max_iter": null, "normalize": false, "random_state": null, "solver": "auto", "tol": 0.001}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20190813_172949</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1509282922466772</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1707933074611196</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02499423027038574</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"criterion": "mse", "max_depth": null, "max_features": null, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 66, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "presort": false, "random_state": null, "splitter": "best"}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20190813_172951</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08896096860766003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1300693632693106</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3749275684356689</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"alpha": 0.9, "criterion": "friedman_mse", "init": null, "learning_rate": 0.05, "loss": "ls", "max_depth": 4, "max_features": 0.7, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 5, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "n_estimators": 500, "n_iter_no_change": 5, "presort": "auto", "random_state": null, "subsample": 0.7, "tol": 0.0001, "validation_fraction": 0.1, "verbose": 0, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20190813_172953</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09883238808177607</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1395277108315071</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.789490985870361</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"bootstrap": true, "criterion": "mse", "max_depth": 6, "max_features": 0.6, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 5, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "n_estimators": 400, "n_jobs": null, "oob_score": false, "random_state": null, "verbose": 0, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20190813_173000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1369784648501687</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1397121730733553</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6342276573181153</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"C": 0.2, "cache_size": 200, "coef0": 0.0, "degree": 3, "epsilon": 0.1, "gamma": "scale", "kernel": "linear", "max_iter": -1, "shrinking": true, "tol": 0.001, "verbose": false}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20190813_173002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LinearRegression</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1532289573505333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1560387010224454</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.009372663497924805</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"copy_X": true, "fit_intercept": true, "n_jobs": null, "normalize": true}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20190813_173004</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LassoRegression</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1728986516118632</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1735276947634072</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.006248903274536133</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"alpha": 0.1, "copy_X": true, "fit_intercept": true, "max_iter": 1000, "normalize": false, "positive": false, "precompute": false, "random_state": null, "selection": "cyclic", "tol": 0.0001, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20190813_173005</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RidgeRegression</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1535052174514289</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1560834997169637</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"alpha": 28.3, "copy_X": true, "fit_intercept": true, "max_iter": null, "normalize": false, "random_state": null, "solver": "auto", "tol": 0.001}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20190813_173007</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1562964232310653</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1775517432061661</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.01250181198120117</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"criterion": "mse", "max_depth": null, "max_features": null, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 66, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "presort": false, "random_state": null, "splitter": "best"}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20190813_173008</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1036247633590268</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1466703429969668</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2436985969543457</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"alpha": 0.9, "criterion": "friedman_mse", "init": null, "learning_rate": 0.05, "loss": "ls", "max_depth": 4, "max_features": 0.7, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 5, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "n_estimators": 500, "n_iter_no_change": 5, "presort": "auto", "random_state": null, "subsample": 0.7, "tol": 0.0001, "validation_fraction": 0.1, "verbose": 0, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20190813_173010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1106164993927619</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1520175894251858</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.043033504486084</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{"bootstrap": true, "criterion": "mse", "max_depth": 6, "max_features": 0.6, "max_leaf_nodes": null, "min_impurity_decrease": 0.0, "min_impurity_split": null, "min_samples_leaf": 5, "min_samples_split": 2, "min_weight_fraction_leaf": 0.0, "n_estimators": 400, "n_jobs": null, "oob_score": false, "random_state": null, "verbose": 0, "warm_start": false}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20190813_173015</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1543011735483632</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1562016029308639</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4061549663543701</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"C": 0.2, "cache_size": 200, "coef0": 0.0, "degree": 3, "epsilon": 0.1, "gamma": "scale", "kernel": "linear", "max_iter": -1, "shrinking": true, "tol": 0.001, "verbose": false}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20190813_173017</t>
         </is>
       </c>
     </row>

--- a/data/validate_result.xlsx
+++ b/data/validate_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,6 +809,470 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1167250642157562</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1323661807718067</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.00625457763671875</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20190813_173017</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.132004564169356</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1481827909625092</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.003129339218139648</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20190813_173017</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1295097787445073</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1262956743423199</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.38505282402039</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20190814_192645</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1468543872960718</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1468522816734913</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.320557641983032</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20190814_192722</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Stacking_GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01597371921996089</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1581312641757184</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.5182089805603</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20190814_192915</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Stacking_GradientBoostingRegressor</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0204933914335981</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1757970489807025</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.440111541748047</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20190814_192954</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Stacking_LassoRegression</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1459136061938723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1380459538593961</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.8353524684906</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20190814_193137</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Stacking_LassoRegression</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1641174342778099</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1565641238684974</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7.530751991271972</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20190814_193215</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Stacking_RidgeRegression</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1345196910557433</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1276494652077239</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.60918116569519</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20190814_193420</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Stacking_RidgeRegression</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1529252856139861</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.146683114195055</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.334234714508057</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20190814_193457</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1318276093436919</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.124626841734163</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10.60251603126526</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20190814_193553</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1507237621903534</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1442297811852314</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7.282269477844238</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20190814_193631</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Stacking_DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1136212456990947</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.150268853833115</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.46490230560303</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20190814_193827</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Stacking_DecisionTreeRegressor</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1279549614495289</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1690805774567589</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7.256768321990966</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20190814_193904</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stacking_RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07164321214150408</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1431412714075654</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10.60662784576416</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20190814_194005</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Stacking_RandomForestRegressor</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08140375371103238</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1607486531083052</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.43064227104187</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "LassoRegression", "RidgeRegression", "DecisionTreeRegressor", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20190814_194047</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/validate_result.xlsx
+++ b/data/validate_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,6 +1273,126 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1293142557428085</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1248272616148091</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.6696084022522</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20190814_233618</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Stacking_LinearRegression</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1482000097268107</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1452084977220737</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.117083311080933</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20190814_233654</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1317861849885989</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1242135441934235</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.5151837348938</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20190814_234108</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Stacking_SVR</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1508888292374381</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1428574347329207</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7.258581256866455</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>["LinearRegression", "RidgeRegression", "GradientBoostingRegressor", "RandomForestRegressor", "SVR"]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20190814_234144</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
